--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_16_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_16_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1974153.356963289</v>
+        <v>2001618.700928292</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.972584562</v>
+        <v>6486630.972584559</v>
       </c>
     </row>
     <row r="9">
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>308.3992896669951</v>
       </c>
       <c r="W11" t="n">
-        <v>204.6193496862187</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H12" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I12" t="n">
-        <v>21.30239922246437</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216742073</v>
       </c>
       <c r="T12" t="n">
         <v>192.192932426668</v>
       </c>
       <c r="U12" t="n">
-        <v>154.3681652355341</v>
+        <v>225.8112657109832</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>53.76397372915844</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U13" t="n">
-        <v>206.3778823012456</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>347.4301562121687</v>
       </c>
       <c r="H14" t="n">
         <v>301.6186538912489</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.98689662276325</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3657483393379</v>
+        <v>63.92264786388877</v>
       </c>
       <c r="H15" t="n">
         <v>93.13436112172583</v>
@@ -1742,7 +1742,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U15" t="n">
-        <v>154.3681652355341</v>
+        <v>225.8112657109832</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H16" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I16" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>102.7394132419461</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U16" t="n">
         <v>286.2285878140705</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.3716276212508</v>
+        <v>131.0043791069695</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>33.15799163508568</v>
       </c>
       <c r="G17" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H17" t="n">
-        <v>177.636119410522</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>95.09008317441825</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>63.50388216741982</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T18" t="n">
         <v>192.192932426668</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>170.8629698603921</v>
       </c>
       <c r="W19" t="n">
-        <v>145.1664468320968</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.6062992654567</v>
+        <v>400.3792074904883</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>5.82059493592797</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T20" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.3657483393379</v>
+        <v>63.92264786388877</v>
       </c>
       <c r="H21" t="n">
         <v>93.13436112172583</v>
@@ -2219,7 +2219,7 @@
         <v>225.8112657109832</v>
       </c>
       <c r="V21" t="n">
-        <v>161.3574866739775</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>77.22810184760058</v>
+        <v>77.22810184760061</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
-        <v>301.6186538912489</v>
+        <v>46.96601508623625</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>206.9146911261644</v>
@@ -2377,16 +2377,16 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V23" t="n">
-        <v>95.15325916873289</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I24" t="n">
-        <v>21.3023992224647</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T25" t="n">
-        <v>220.8610019386828</v>
+        <v>79.5044504341885</v>
       </c>
       <c r="U25" t="n">
         <v>286.2285878140705</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>77.22810184760078</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>239.1680279005418</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>223.5311625151951</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I26" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2687,7 +2687,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T27" t="n">
-        <v>192.192932426668</v>
+        <v>192.1929324266682</v>
       </c>
       <c r="U27" t="n">
         <v>225.8112657109832</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.76397372915773</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>77.69369077547115</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>101.9864786647133</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>28.66111166510993</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>7.659150359667845</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>102.7394132419461</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>202.4746925812798</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2285878140705</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,13 +3037,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>138.6736086033476</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>217.6928930270298</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>38.95645070216138</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>77.2281018476007</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>220.8610019386828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>319.5693533074757</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
-        <v>268.0522500013634</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3362,10 +3362,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H36" t="n">
-        <v>93.13436112172583</v>
+        <v>42.99365986874107</v>
       </c>
       <c r="I36" t="n">
-        <v>21.30239922246437</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T36" t="n">
-        <v>120.749831951219</v>
+        <v>192.192932426668</v>
       </c>
       <c r="U36" t="n">
         <v>225.8112657109832</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>28.53344724769769</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S37" t="n">
         <v>195.1205252336517</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>156.5037945900686</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>98.51233213894552</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.6062992654567</v>
+        <v>297.0976201371431</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H39" t="n">
-        <v>21.69126064627669</v>
+        <v>42.9936598687393</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246437</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>42.42703359015077</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2285878140705</v>
+        <v>239.5335621654139</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>164.9541716262117</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>203.2471963826976</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>95.09008317441825</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3836,7 +3836,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H42" t="n">
-        <v>93.13436112172583</v>
+        <v>21.69126064627536</v>
       </c>
       <c r="I42" t="n">
         <v>21.30239922246437</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>67.49790831549619</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3328844140846</v>
+        <v>114.2833137731559</v>
       </c>
       <c r="H43" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T44" t="n">
-        <v>9.578331304216649</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>148.2656131893517</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,10 +4073,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H45" t="n">
-        <v>93.13436112172583</v>
+        <v>42.99365986873975</v>
       </c>
       <c r="I45" t="n">
-        <v>21.30239922246437</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>134.2395953018539</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>41.17526981246031</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.7394132419461</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>15.53003894133915</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1231.489806114191</v>
+        <v>851.3700201789227</v>
       </c>
       <c r="C11" t="n">
-        <v>862.5272891737793</v>
+        <v>851.3700201789227</v>
       </c>
       <c r="D11" t="n">
-        <v>504.2615905670287</v>
+        <v>851.3700201789227</v>
       </c>
       <c r="E11" t="n">
-        <v>118.4733379687845</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="F11" t="n">
-        <v>118.4733379687845</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G11" t="n">
-        <v>118.4733379687845</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H11" t="n">
-        <v>118.4733379687845</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I11" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J11" t="n">
-        <v>181.1756535819841</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7854999799492</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L11" t="n">
         <v>772.8691714549154</v>
@@ -5059,34 +5059,34 @@
         <v>2002.031077317524</v>
       </c>
       <c r="P11" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q11" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R11" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S11" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T11" t="n">
-        <v>2155.838745326145</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="U11" t="n">
-        <v>2155.838745326145</v>
+        <v>1902.252949520224</v>
       </c>
       <c r="V11" t="n">
-        <v>1824.775857982574</v>
+        <v>1590.738515513159</v>
       </c>
       <c r="W11" t="n">
-        <v>1618.089646178313</v>
+        <v>1237.969860243044</v>
       </c>
       <c r="X11" t="n">
-        <v>1618.089646178313</v>
+        <v>1237.969860243044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1618.089646178313</v>
+        <v>1237.969860243044</v>
       </c>
     </row>
     <row r="12">
@@ -5105,52 +5105,52 @@
         <v>607.9156082542706</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6781532488152</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1435952757001</v>
+        <v>302.1435952757</v>
       </c>
       <c r="G12" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H12" t="n">
-        <v>71.33540390088822</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J12" t="n">
-        <v>109.2358024440159</v>
+        <v>141.515008796443</v>
       </c>
       <c r="K12" t="n">
-        <v>288.9454078621912</v>
+        <v>583.0451988570712</v>
       </c>
       <c r="L12" t="n">
-        <v>787.1759816192942</v>
+        <v>871.0094820397338</v>
       </c>
       <c r="M12" t="n">
-        <v>1142.573585867966</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N12" t="n">
-        <v>1521.78615209827</v>
+        <v>1605.61965251871</v>
       </c>
       <c r="O12" t="n">
-        <v>2138.281785090957</v>
+        <v>1930.305270232467</v>
       </c>
       <c r="P12" t="n">
-        <v>2379.537551852666</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q12" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R12" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S12" t="n">
-        <v>2354.581362957453</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T12" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U12" t="n">
         <v>2004.519648147148</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>770.3272659581434</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="C13" t="n">
-        <v>601.3910830302365</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="D13" t="n">
-        <v>451.2744436179008</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="E13" t="n">
-        <v>303.3613500355077</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F13" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G13" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H13" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I13" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J13" t="n">
-        <v>73.44728005477629</v>
+        <v>73.44728005477634</v>
       </c>
       <c r="K13" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L13" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M13" t="n">
-        <v>809.9798694642498</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N13" t="n">
         <v>1104.867129907538</v>
@@ -5217,34 +5217,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P13" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q13" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R13" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S13" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T13" t="n">
-        <v>1609.220368204926</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U13" t="n">
-        <v>1400.75786082993</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="V13" t="n">
-        <v>1400.75786082993</v>
+        <v>842.3241731780771</v>
       </c>
       <c r="W13" t="n">
-        <v>1400.75786082993</v>
+        <v>552.9070031411165</v>
       </c>
       <c r="X13" t="n">
-        <v>1172.768309931913</v>
+        <v>324.9174522430992</v>
       </c>
       <c r="Y13" t="n">
-        <v>951.9757307883831</v>
+        <v>104.1248730995691</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1203.087066659661</v>
+        <v>1929.118052653708</v>
       </c>
       <c r="C14" t="n">
-        <v>834.1245497192494</v>
+        <v>1929.118052653708</v>
       </c>
       <c r="D14" t="n">
-        <v>834.1245497192494</v>
+        <v>1570.852354046957</v>
       </c>
       <c r="E14" t="n">
-        <v>834.1245497192494</v>
+        <v>1185.064101448713</v>
       </c>
       <c r="F14" t="n">
-        <v>423.1386449296419</v>
+        <v>774.0781966591053</v>
       </c>
       <c r="G14" t="n">
         <v>423.1386449296419</v>
@@ -5305,25 +5305,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S14" t="n">
-        <v>2405.046096311095</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T14" t="n">
-        <v>2196.041357799818</v>
+        <v>2281.886707923822</v>
       </c>
       <c r="U14" t="n">
-        <v>1942.455561993897</v>
+        <v>2281.886707923822</v>
       </c>
       <c r="V14" t="n">
-        <v>1942.455561993897</v>
+        <v>2281.886707923822</v>
       </c>
       <c r="W14" t="n">
-        <v>1589.686906723783</v>
+        <v>1929.118052653708</v>
       </c>
       <c r="X14" t="n">
-        <v>1589.686906723783</v>
+        <v>1929.118052653708</v>
       </c>
       <c r="Y14" t="n">
-        <v>1589.686906723783</v>
+        <v>1929.118052653708</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605228</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992715</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6781532488152</v>
+        <v>376.513405293816</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1435952757001</v>
+        <v>229.978847320701</v>
       </c>
       <c r="G15" t="n">
         <v>165.4105161450557</v>
@@ -5360,22 +5360,22 @@
         <v>234.0659274310207</v>
       </c>
       <c r="K15" t="n">
-        <v>675.5961174916488</v>
+        <v>413.775532849196</v>
       </c>
       <c r="L15" t="n">
-        <v>963.5604006743113</v>
+        <v>1030.271165841883</v>
       </c>
       <c r="M15" t="n">
-        <v>1318.958004922983</v>
+        <v>1385.668770090555</v>
       </c>
       <c r="N15" t="n">
-        <v>1698.170571153287</v>
+        <v>1764.881336320859</v>
       </c>
       <c r="O15" t="n">
-        <v>2022.856188867044</v>
+        <v>2138.281785090957</v>
       </c>
       <c r="P15" t="n">
-        <v>2264.111955628753</v>
+        <v>2379.537551852666</v>
       </c>
       <c r="Q15" t="n">
         <v>2490.891446435099</v>
@@ -5390,19 +5390,19 @@
         <v>2160.447087779</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>600.2493942168028</v>
+        <v>663.8123809975315</v>
       </c>
       <c r="C16" t="n">
-        <v>600.2493942168028</v>
+        <v>663.8123809975315</v>
       </c>
       <c r="D16" t="n">
-        <v>600.2493942168028</v>
+        <v>513.6957415851957</v>
       </c>
       <c r="E16" t="n">
-        <v>452.3363006344097</v>
+        <v>513.6957415851957</v>
       </c>
       <c r="F16" t="n">
-        <v>305.4463531364993</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G16" t="n">
-        <v>305.4463531364993</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H16" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I16" t="n">
         <v>49.81782892870198</v>
@@ -5463,25 +5463,25 @@
         <v>1505.443183112051</v>
       </c>
       <c r="S16" t="n">
-        <v>1505.443183112051</v>
+        <v>1308.3517434821</v>
       </c>
       <c r="T16" t="n">
-        <v>1505.443183112051</v>
+        <v>1085.259822331915</v>
       </c>
       <c r="U16" t="n">
-        <v>1216.323397441273</v>
+        <v>796.1400366611371</v>
       </c>
       <c r="V16" t="n">
-        <v>1216.323397441273</v>
+        <v>796.1400366611371</v>
       </c>
       <c r="W16" t="n">
-        <v>1216.323397441273</v>
+        <v>796.1400366611371</v>
       </c>
       <c r="X16" t="n">
-        <v>988.3338465432555</v>
+        <v>796.1400366611371</v>
       </c>
       <c r="Y16" t="n">
-        <v>781.8978590470425</v>
+        <v>663.8123809975315</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1399.762960766326</v>
+        <v>567.7301974642819</v>
       </c>
       <c r="C17" t="n">
-        <v>1030.800443825915</v>
+        <v>567.7301974642819</v>
       </c>
       <c r="D17" t="n">
-        <v>1030.800443825915</v>
+        <v>567.7301974642819</v>
       </c>
       <c r="E17" t="n">
-        <v>645.0121912276704</v>
+        <v>567.7301974642819</v>
       </c>
       <c r="F17" t="n">
-        <v>645.0121912276704</v>
+        <v>534.237276620761</v>
       </c>
       <c r="G17" t="n">
-        <v>229.2482525756939</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="H17" t="n">
-        <v>49.81782892870198</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I17" t="n">
         <v>49.81782892870198</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799485</v>
       </c>
       <c r="L17" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M17" t="n">
         <v>1187.397991240658</v>
       </c>
       <c r="N17" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O17" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P17" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q17" t="n">
         <v>2474.446703561746</v>
@@ -5545,22 +5545,22 @@
         <v>2490.891446435099</v>
       </c>
       <c r="T17" t="n">
-        <v>2490.891446435099</v>
+        <v>2281.886707923822</v>
       </c>
       <c r="U17" t="n">
-        <v>2490.891446435099</v>
+        <v>2028.3009121179</v>
       </c>
       <c r="V17" t="n">
-        <v>2159.828559091528</v>
+        <v>1697.238024774329</v>
       </c>
       <c r="W17" t="n">
-        <v>2159.828559091528</v>
+        <v>1344.469369504215</v>
       </c>
       <c r="X17" t="n">
-        <v>1786.362800830448</v>
+        <v>1344.469369504215</v>
       </c>
       <c r="Y17" t="n">
-        <v>1786.362800830448</v>
+        <v>954.3300375284036</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>49.81782892870198</v>
       </c>
       <c r="J18" t="n">
-        <v>109.2358024440159</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K18" t="n">
-        <v>288.9454078621912</v>
+        <v>675.5961174916488</v>
       </c>
       <c r="L18" t="n">
-        <v>576.9096910448537</v>
+        <v>963.5604006743113</v>
       </c>
       <c r="M18" t="n">
-        <v>1142.573585867966</v>
+        <v>1318.958004922983</v>
       </c>
       <c r="N18" t="n">
-        <v>1521.78615209827</v>
+        <v>1698.170571153287</v>
       </c>
       <c r="O18" t="n">
-        <v>2138.281785090957</v>
+        <v>2022.856188867044</v>
       </c>
       <c r="P18" t="n">
-        <v>2379.537551852666</v>
+        <v>2264.111955628753</v>
       </c>
       <c r="Q18" t="n">
         <v>2490.891446435099</v>
@@ -5621,25 +5621,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S18" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T18" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U18" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V18" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W18" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y18" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="19">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.81782892870198</v>
+        <v>516.7837448513377</v>
       </c>
       <c r="C19" t="n">
-        <v>49.81782892870198</v>
+        <v>347.8475619234308</v>
       </c>
       <c r="D19" t="n">
-        <v>49.81782892870198</v>
+        <v>197.7309225110951</v>
       </c>
       <c r="E19" t="n">
         <v>49.81782892870198</v>
@@ -5700,25 +5700,25 @@
         <v>1609.220368204926</v>
       </c>
       <c r="S19" t="n">
-        <v>1412.128928574975</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T19" t="n">
-        <v>1189.03700742479</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="U19" t="n">
-        <v>899.9172217540118</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="V19" t="n">
-        <v>645.232733548125</v>
+        <v>1436.631509760085</v>
       </c>
       <c r="W19" t="n">
-        <v>498.5999589702494</v>
+        <v>1147.214339723125</v>
       </c>
       <c r="X19" t="n">
-        <v>270.6104080722321</v>
+        <v>919.2247888251076</v>
       </c>
       <c r="Y19" t="n">
-        <v>49.81782892870198</v>
+        <v>698.4322096815774</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1268.2353137927</v>
+        <v>1978.2436437733</v>
       </c>
       <c r="C20" t="n">
-        <v>1268.2353137927</v>
+        <v>1609.281126832889</v>
       </c>
       <c r="D20" t="n">
-        <v>1268.2353137927</v>
+        <v>1251.015428226138</v>
       </c>
       <c r="E20" t="n">
-        <v>882.4470611944557</v>
+        <v>865.2271756278938</v>
       </c>
       <c r="F20" t="n">
-        <v>471.4611564048482</v>
+        <v>454.2412708382862</v>
       </c>
       <c r="G20" t="n">
-        <v>55.69721775287167</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H20" t="n">
-        <v>55.69721775287167</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I20" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J20" t="n">
         <v>181.1756535819833</v>
       </c>
       <c r="K20" t="n">
-        <v>428.7854999799485</v>
+        <v>428.7854999799484</v>
       </c>
       <c r="L20" t="n">
         <v>772.8691714549147</v>
@@ -5776,28 +5776,28 @@
         <v>2474.446703561745</v>
       </c>
       <c r="R20" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S20" t="n">
-        <v>2490.8914464351</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T20" t="n">
-        <v>2281.886707923823</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="U20" t="n">
-        <v>2028.300912117902</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="V20" t="n">
-        <v>2028.300912117902</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="W20" t="n">
-        <v>2028.300912117902</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="X20" t="n">
-        <v>1654.835153856822</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="Y20" t="n">
-        <v>1654.835153856822</v>
+        <v>2364.843483837422</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605228</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992715</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6781532488152</v>
+        <v>376.513405293816</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1435952757001</v>
+        <v>229.978847320701</v>
       </c>
       <c r="G21" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H21" t="n">
-        <v>71.33540390088824</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I21" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J21" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K21" t="n">
-        <v>550.765992504644</v>
+        <v>583.0451988570709</v>
       </c>
       <c r="L21" t="n">
-        <v>1078.985996898225</v>
+        <v>871.0094820397334</v>
       </c>
       <c r="M21" t="n">
-        <v>1434.383601146897</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N21" t="n">
-        <v>1813.596167377202</v>
+        <v>1605.619652518709</v>
       </c>
       <c r="O21" t="n">
-        <v>2138.281785090959</v>
+        <v>1930.305270232466</v>
       </c>
       <c r="P21" t="n">
-        <v>2379.537551852668</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q21" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R21" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S21" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T21" t="n">
-        <v>2160.447087779002</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U21" t="n">
-        <v>1932.35490019215</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V21" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W21" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X21" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y21" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="C22" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="D22" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="E22" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="F22" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G22" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H22" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I22" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J22" t="n">
-        <v>73.4472800547763</v>
+        <v>73.44728005477629</v>
       </c>
       <c r="K22" t="n">
         <v>242.1145636490677</v>
@@ -5955,7 +5955,7 @@
         <v>127.826012613147</v>
       </c>
       <c r="Y22" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870198</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>766.9417906374322</v>
+        <v>994.1363506476603</v>
       </c>
       <c r="C23" t="n">
-        <v>766.9417906374322</v>
+        <v>994.1363506476603</v>
       </c>
       <c r="D23" t="n">
-        <v>766.9417906374322</v>
+        <v>994.1363506476603</v>
       </c>
       <c r="E23" t="n">
-        <v>766.9417906374322</v>
+        <v>994.1363506476603</v>
       </c>
       <c r="F23" t="n">
-        <v>355.9558858478247</v>
+        <v>583.1504458580528</v>
       </c>
       <c r="G23" t="n">
-        <v>355.9558858478247</v>
+        <v>167.3865072060763</v>
       </c>
       <c r="H23" t="n">
-        <v>51.29057888696727</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I23" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J23" t="n">
-        <v>189.753895820996</v>
+        <v>189.7538958209956</v>
       </c>
       <c r="K23" t="n">
-        <v>437.3637422189612</v>
+        <v>437.3637422189608</v>
       </c>
       <c r="L23" t="n">
-        <v>781.4474136939275</v>
+        <v>781.447413693927</v>
       </c>
       <c r="M23" t="n">
         <v>1195.976233479671</v>
@@ -6004,10 +6004,10 @@
         <v>1621.826371324919</v>
       </c>
       <c r="O23" t="n">
-        <v>2010.609319556536</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P23" t="n">
-        <v>2307.925570201861</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q23" t="n">
         <v>2483.024945800758</v>
@@ -6016,25 +6016,25 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S23" t="n">
-        <v>2438.480981750687</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T23" t="n">
-        <v>2229.47624323941</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="U23" t="n">
-        <v>1975.890447433488</v>
+        <v>2101.938410031164</v>
       </c>
       <c r="V23" t="n">
-        <v>1879.776044232748</v>
+        <v>1770.875522687594</v>
       </c>
       <c r="W23" t="n">
-        <v>1527.007388962634</v>
+        <v>1770.875522687594</v>
       </c>
       <c r="X23" t="n">
-        <v>1153.541630701554</v>
+        <v>1770.875522687594</v>
       </c>
       <c r="Y23" t="n">
-        <v>1153.541630701554</v>
+        <v>1380.736190711782</v>
       </c>
     </row>
     <row r="24">
@@ -6050,43 +6050,43 @@
         <v>758.3227678737875</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125362</v>
+        <v>609.3883582125361</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070807</v>
+        <v>450.1509032070805</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339657</v>
+        <v>303.6163452339656</v>
       </c>
       <c r="G24" t="n">
-        <v>166.8832661033213</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915383</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I24" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J24" t="n">
         <v>235.538677389286</v>
       </c>
       <c r="K24" t="n">
-        <v>656.6826967703356</v>
+        <v>677.068867449914</v>
       </c>
       <c r="L24" t="n">
-        <v>944.6469799529981</v>
+        <v>965.0331506325765</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.04458420167</v>
+        <v>1320.430754881248</v>
       </c>
       <c r="N24" t="n">
-        <v>1679.257150431974</v>
+        <v>1699.643321111553</v>
       </c>
       <c r="O24" t="n">
-        <v>2003.942768145731</v>
+        <v>2024.32893882531</v>
       </c>
       <c r="P24" t="n">
-        <v>2245.19853490744</v>
+        <v>2265.584705587019</v>
       </c>
       <c r="Q24" t="n">
         <v>2564.528944348363</v>
@@ -6095,7 +6095,7 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S24" t="n">
-        <v>2428.218860870718</v>
+        <v>2428.218860870717</v>
       </c>
       <c r="T24" t="n">
         <v>2234.084585692265</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="C25" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="D25" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="E25" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F25" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G25" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H25" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I25" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J25" t="n">
         <v>74.92003001304157</v>
@@ -6177,22 +6177,22 @@
         <v>1413.60167853324</v>
       </c>
       <c r="T25" t="n">
-        <v>1190.509757383056</v>
+        <v>1333.294152842141</v>
       </c>
       <c r="U25" t="n">
-        <v>901.3899717122773</v>
+        <v>1044.174367171362</v>
       </c>
       <c r="V25" t="n">
-        <v>646.7054835063905</v>
+        <v>789.4898789654753</v>
       </c>
       <c r="W25" t="n">
-        <v>357.2883134694299</v>
+        <v>500.0727089285147</v>
       </c>
       <c r="X25" t="n">
-        <v>129.2987625714125</v>
+        <v>272.0831580304974</v>
       </c>
       <c r="Y25" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>730.4924714336653</v>
+        <v>1308.973154440638</v>
       </c>
       <c r="C26" t="n">
-        <v>361.5299544932536</v>
+        <v>940.0106375002267</v>
       </c>
       <c r="D26" t="n">
-        <v>119.9460879270498</v>
+        <v>581.7449388934763</v>
       </c>
       <c r="E26" t="n">
-        <v>119.9460879270498</v>
+        <v>581.7449388934763</v>
       </c>
       <c r="F26" t="n">
-        <v>119.9460879270498</v>
+        <v>581.7449388934763</v>
       </c>
       <c r="G26" t="n">
-        <v>119.9460879270498</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="H26" t="n">
-        <v>119.9460879270498</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I26" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J26" t="n">
-        <v>182.6484035402486</v>
+        <v>189.7538958209956</v>
       </c>
       <c r="K26" t="n">
-        <v>430.2582499382138</v>
+        <v>437.3637422189608</v>
       </c>
       <c r="L26" t="n">
-        <v>774.34192141318</v>
+        <v>781.447413693927</v>
       </c>
       <c r="M26" t="n">
-        <v>1261.035489153923</v>
+        <v>1195.976233479671</v>
       </c>
       <c r="N26" t="n">
-        <v>1686.885626999171</v>
+        <v>1621.826371324919</v>
       </c>
       <c r="O26" t="n">
-        <v>2075.668575230788</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P26" t="n">
-        <v>2372.984825876113</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q26" t="n">
-        <v>2548.084201475011</v>
+        <v>2483.024945800758</v>
       </c>
       <c r="R26" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S26" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T26" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="U26" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="V26" t="n">
-        <v>2233.466057004793</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="W26" t="n">
-        <v>1880.697401734679</v>
+        <v>2085.712326480572</v>
       </c>
       <c r="X26" t="n">
-        <v>1507.231643473599</v>
+        <v>2085.712326480572</v>
       </c>
       <c r="Y26" t="n">
-        <v>1117.092311497787</v>
+        <v>1695.57299450476</v>
       </c>
     </row>
     <row r="27">
@@ -6287,43 +6287,43 @@
         <v>758.322767873787</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070803</v>
+        <v>450.1509032070801</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G27" t="n">
         <v>166.883266103321</v>
       </c>
       <c r="H27" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915351</v>
       </c>
       <c r="I27" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J27" t="n">
-        <v>215.1525067097075</v>
+        <v>110.7085524022812</v>
       </c>
       <c r="K27" t="n">
-        <v>656.6826967703356</v>
+        <v>549.3810706752882</v>
       </c>
       <c r="L27" t="n">
-        <v>944.6469799529981</v>
+        <v>837.3453538579507</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.04458420167</v>
+        <v>1192.742958106622</v>
       </c>
       <c r="N27" t="n">
-        <v>1679.257150431974</v>
+        <v>1571.955524336927</v>
       </c>
       <c r="O27" t="n">
-        <v>2003.942768145731</v>
+        <v>1896.641142050684</v>
       </c>
       <c r="P27" t="n">
-        <v>2245.19853490744</v>
+        <v>2453.17504976593</v>
       </c>
       <c r="Q27" t="n">
         <v>2564.528944348363</v>
@@ -6341,7 +6341,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V27" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W27" t="n">
         <v>1516.602933145469</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>833.1594568671948</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="C28" t="n">
-        <v>664.2232739392879</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="D28" t="n">
-        <v>514.1066345269521</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="E28" t="n">
-        <v>366.193540944559</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F28" t="n">
-        <v>219.3035934466487</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G28" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H28" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I28" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J28" t="n">
         <v>74.92003001304157</v>
@@ -6414,22 +6414,22 @@
         <v>1610.693118163191</v>
       </c>
       <c r="T28" t="n">
-        <v>1532.214642632413</v>
+        <v>1387.601197013007</v>
       </c>
       <c r="U28" t="n">
-        <v>1532.214642632413</v>
+        <v>1098.481411342229</v>
       </c>
       <c r="V28" t="n">
-        <v>1532.214642632413</v>
+        <v>843.7969231363417</v>
       </c>
       <c r="W28" t="n">
-        <v>1242.797472595452</v>
+        <v>554.3797530993811</v>
       </c>
       <c r="X28" t="n">
-        <v>1014.807921697434</v>
+        <v>326.3902022013638</v>
       </c>
       <c r="Y28" t="n">
-        <v>1014.807921697434</v>
+        <v>105.5976230578337</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1804.463346023162</v>
+        <v>1632.791191867207</v>
       </c>
       <c r="C29" t="n">
-        <v>1435.50082908275</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="D29" t="n">
-        <v>1332.484183966878</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="E29" t="n">
-        <v>946.6959313686339</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="F29" t="n">
-        <v>535.7100265790262</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="G29" t="n">
-        <v>119.9460879270498</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H29" t="n">
-        <v>119.9460879270498</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I29" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J29" t="n">
-        <v>182.6484035402486</v>
+        <v>189.7538958209956</v>
       </c>
       <c r="K29" t="n">
-        <v>502.4229978932134</v>
+        <v>437.3637422189608</v>
       </c>
       <c r="L29" t="n">
-        <v>846.5066693681797</v>
+        <v>781.447413693927</v>
       </c>
       <c r="M29" t="n">
-        <v>1261.035489153923</v>
+        <v>1195.976233479671</v>
       </c>
       <c r="N29" t="n">
-        <v>1686.885626999171</v>
+        <v>1621.826371324919</v>
       </c>
       <c r="O29" t="n">
-        <v>2075.668575230788</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P29" t="n">
-        <v>2372.984825876113</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q29" t="n">
-        <v>2548.084201475011</v>
+        <v>2483.024945800758</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S29" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T29" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="U29" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="V29" t="n">
-        <v>2564.528944348363</v>
+        <v>2409.530363907141</v>
       </c>
       <c r="W29" t="n">
-        <v>2564.528944348363</v>
+        <v>2409.530363907141</v>
       </c>
       <c r="X29" t="n">
-        <v>2191.063186087284</v>
+        <v>2409.530363907141</v>
       </c>
       <c r="Y29" t="n">
-        <v>2191.063186087284</v>
+        <v>2019.391031931329</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>166.883266103321</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915351</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I30" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J30" t="n">
         <v>235.538677389286</v>
       </c>
       <c r="K30" t="n">
-        <v>677.068867449914</v>
+        <v>656.6826967703352</v>
       </c>
       <c r="L30" t="n">
-        <v>965.0331506325765</v>
+        <v>944.6469799529976</v>
       </c>
       <c r="M30" t="n">
-        <v>1320.430754881248</v>
+        <v>1300.044584201669</v>
       </c>
       <c r="N30" t="n">
-        <v>1699.643321111553</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O30" t="n">
-        <v>2024.32893882531</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P30" t="n">
-        <v>2265.584705587019</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q30" t="n">
         <v>2564.528944348363</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>51.29057888696727</v>
+        <v>777.4716742495655</v>
       </c>
       <c r="C31" t="n">
-        <v>51.29057888696727</v>
+        <v>777.4716742495655</v>
       </c>
       <c r="D31" t="n">
-        <v>51.29057888696727</v>
+        <v>769.7351587347495</v>
       </c>
       <c r="E31" t="n">
-        <v>51.29057888696727</v>
+        <v>621.8220651523563</v>
       </c>
       <c r="F31" t="n">
-        <v>51.29057888696727</v>
+        <v>474.932117654446</v>
       </c>
       <c r="G31" t="n">
-        <v>51.29057888696727</v>
+        <v>306.9191030947646</v>
       </c>
       <c r="H31" t="n">
-        <v>51.29057888696727</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="I31" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J31" t="n">
         <v>74.92003001304157</v>
@@ -6645,28 +6645,28 @@
         <v>1610.693118163191</v>
       </c>
       <c r="R31" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="S31" t="n">
-        <v>1309.824493440365</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="T31" t="n">
-        <v>1105.304601944123</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="U31" t="n">
-        <v>816.1848162733448</v>
+        <v>1321.573332492413</v>
       </c>
       <c r="V31" t="n">
-        <v>561.500328067458</v>
+        <v>1066.888844286526</v>
       </c>
       <c r="W31" t="n">
-        <v>272.0831580304974</v>
+        <v>777.4716742495655</v>
       </c>
       <c r="X31" t="n">
-        <v>272.0831580304974</v>
+        <v>777.4716742495655</v>
       </c>
       <c r="Y31" t="n">
-        <v>51.29057888696727</v>
+        <v>777.4716742495655</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1605.268637875713</v>
+        <v>918.593146558723</v>
       </c>
       <c r="C32" t="n">
-        <v>1236.306120935302</v>
+        <v>549.6306296183113</v>
       </c>
       <c r="D32" t="n">
-        <v>878.0404223285514</v>
+        <v>191.3649310115608</v>
       </c>
       <c r="E32" t="n">
-        <v>878.0404223285514</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F32" t="n">
-        <v>467.0545175389437</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G32" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H32" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I32" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J32" t="n">
         <v>182.6484035402486</v>
       </c>
       <c r="K32" t="n">
-        <v>502.4229978932134</v>
+        <v>430.2582499382138</v>
       </c>
       <c r="L32" t="n">
-        <v>846.5066693681797</v>
+        <v>774.34192141318</v>
       </c>
       <c r="M32" t="n">
-        <v>1261.035489153923</v>
+        <v>1188.870741198923</v>
       </c>
       <c r="N32" t="n">
-        <v>1686.885626999171</v>
+        <v>1614.720879044172</v>
       </c>
       <c r="O32" t="n">
-        <v>2075.668575230788</v>
+        <v>2003.503827275788</v>
       </c>
       <c r="P32" t="n">
         <v>2372.984825876113</v>
       </c>
       <c r="Q32" t="n">
-        <v>2548.084201475011</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R32" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S32" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T32" t="n">
-        <v>2564.528944348363</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="U32" t="n">
-        <v>2564.528944348363</v>
+        <v>1975.890447433488</v>
       </c>
       <c r="V32" t="n">
-        <v>2564.528944348363</v>
+        <v>1644.827560089917</v>
       </c>
       <c r="W32" t="n">
-        <v>2211.760289078249</v>
+        <v>1292.058904819803</v>
       </c>
       <c r="X32" t="n">
-        <v>1991.868477939835</v>
+        <v>918.593146558723</v>
       </c>
       <c r="Y32" t="n">
-        <v>1991.868477939835</v>
+        <v>918.593146558723</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>932.7757971549141</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C33" t="n">
-        <v>758.3227678737871</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D33" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E33" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070801</v>
       </c>
       <c r="F33" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G33" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H33" t="n">
-        <v>72.80815385915351</v>
+        <v>72.80815385915366</v>
       </c>
       <c r="I33" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J33" t="n">
-        <v>110.7085524022812</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K33" t="n">
-        <v>290.4181578204565</v>
+        <v>677.068867449914</v>
       </c>
       <c r="L33" t="n">
-        <v>578.3824410031191</v>
+        <v>965.0331506325765</v>
       </c>
       <c r="M33" t="n">
-        <v>933.7800452517905</v>
+        <v>1320.430754881248</v>
       </c>
       <c r="N33" t="n">
-        <v>1312.992611482095</v>
+        <v>1699.643321111553</v>
       </c>
       <c r="O33" t="n">
-        <v>1947.713525208315</v>
+        <v>2024.32893882531</v>
       </c>
       <c r="P33" t="n">
-        <v>2453.17504976593</v>
+        <v>2265.584705587019</v>
       </c>
       <c r="Q33" t="n">
         <v>2564.528944348363</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>51.29057888696727</v>
+        <v>515.0298028951777</v>
       </c>
       <c r="C34" t="n">
-        <v>51.29057888696727</v>
+        <v>346.0936199672707</v>
       </c>
       <c r="D34" t="n">
-        <v>51.29057888696727</v>
+        <v>346.0936199672707</v>
       </c>
       <c r="E34" t="n">
-        <v>51.29057888696727</v>
+        <v>198.1805263848776</v>
       </c>
       <c r="F34" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G34" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H34" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I34" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J34" t="n">
         <v>74.92003001304157</v>
@@ -6882,28 +6882,28 @@
         <v>1610.693118163191</v>
       </c>
       <c r="R34" t="n">
-        <v>1532.684934478746</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="S34" t="n">
-        <v>1335.593494848795</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="T34" t="n">
-        <v>1112.50157369861</v>
+        <v>1387.601197013007</v>
       </c>
       <c r="U34" t="n">
-        <v>823.3817880278322</v>
+        <v>1098.481411342229</v>
       </c>
       <c r="V34" t="n">
-        <v>568.6972998219453</v>
+        <v>843.7969231363417</v>
       </c>
       <c r="W34" t="n">
-        <v>279.2801297849846</v>
+        <v>554.3797530993811</v>
       </c>
       <c r="X34" t="n">
-        <v>51.29057888696727</v>
+        <v>554.3797530993811</v>
       </c>
       <c r="Y34" t="n">
-        <v>51.29057888696727</v>
+        <v>554.3797530993811</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1433.594145560334</v>
+        <v>1451.310099721494</v>
       </c>
       <c r="C35" t="n">
-        <v>1064.631628619922</v>
+        <v>1451.310099721494</v>
       </c>
       <c r="D35" t="n">
-        <v>706.3659300131719</v>
+        <v>1093.044401114744</v>
       </c>
       <c r="E35" t="n">
-        <v>320.5776774149277</v>
+        <v>1093.044401114744</v>
       </c>
       <c r="F35" t="n">
-        <v>320.5776774149277</v>
+        <v>770.247074541536</v>
       </c>
       <c r="G35" t="n">
-        <v>320.5776774149277</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H35" t="n">
         <v>49.81782892870198</v>
@@ -6937,19 +6937,19 @@
         <v>49.81782892870198</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799484</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L35" t="n">
-        <v>772.8691714549147</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M35" t="n">
         <v>1187.397991240658</v>
       </c>
       <c r="N35" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O35" t="n">
         <v>2002.031077317523</v>
@@ -6958,31 +6958,31 @@
         <v>2299.347327962848</v>
       </c>
       <c r="Q35" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R35" t="n">
         <v>2490.891446435099</v>
       </c>
       <c r="S35" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T35" t="n">
-        <v>2490.891446435099</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="U35" t="n">
-        <v>2490.891446435099</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="V35" t="n">
-        <v>2159.828559091528</v>
+        <v>1824.775857982574</v>
       </c>
       <c r="W35" t="n">
-        <v>1807.059903821414</v>
+        <v>1824.775857982574</v>
       </c>
       <c r="X35" t="n">
-        <v>1433.594145560334</v>
+        <v>1451.310099721494</v>
       </c>
       <c r="Y35" t="n">
-        <v>1433.594145560334</v>
+        <v>1451.310099721494</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605228</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992715</v>
       </c>
       <c r="E36" t="n">
-        <v>448.6781532488152</v>
+        <v>376.513405293816</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1435952757001</v>
+        <v>229.978847320701</v>
       </c>
       <c r="G36" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005659</v>
       </c>
       <c r="H36" t="n">
-        <v>71.33540390088822</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I36" t="n">
         <v>49.81782892870198</v>
       </c>
       <c r="J36" t="n">
-        <v>234.0659274310207</v>
+        <v>141.5150087964428</v>
       </c>
       <c r="K36" t="n">
-        <v>675.5961174916488</v>
+        <v>583.0451988570709</v>
       </c>
       <c r="L36" t="n">
-        <v>963.5604006743113</v>
+        <v>871.0094820397334</v>
       </c>
       <c r="M36" t="n">
-        <v>1434.383601146896</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N36" t="n">
-        <v>1813.5961673772</v>
+        <v>1605.619652518709</v>
       </c>
       <c r="O36" t="n">
-        <v>2138.281785090957</v>
+        <v>1930.305270232466</v>
       </c>
       <c r="P36" t="n">
-        <v>2379.537551852666</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q36" t="n">
         <v>2490.891446435099</v>
@@ -7046,22 +7046,22 @@
         <v>2354.581362957453</v>
       </c>
       <c r="T36" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U36" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V36" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W36" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y36" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>197.7309225110951</v>
+        <v>541.4555484552502</v>
       </c>
       <c r="C37" t="n">
-        <v>197.7309225110951</v>
+        <v>541.4555484552502</v>
       </c>
       <c r="D37" t="n">
-        <v>197.7309225110951</v>
+        <v>512.6338845686869</v>
       </c>
       <c r="E37" t="n">
-        <v>49.81782892870198</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="F37" t="n">
-        <v>49.81782892870198</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G37" t="n">
         <v>49.81782892870198</v>
@@ -7119,28 +7119,28 @@
         <v>1609.220368204926</v>
       </c>
       <c r="R37" t="n">
-        <v>1609.220368204926</v>
+        <v>1505.443183112051</v>
       </c>
       <c r="S37" t="n">
-        <v>1412.128928574975</v>
+        <v>1308.3517434821</v>
       </c>
       <c r="T37" t="n">
-        <v>1189.03700742479</v>
+        <v>1085.259822331915</v>
       </c>
       <c r="U37" t="n">
-        <v>899.9172217540118</v>
+        <v>796.1400366611371</v>
       </c>
       <c r="V37" t="n">
-        <v>645.232733548125</v>
+        <v>541.4555484552502</v>
       </c>
       <c r="W37" t="n">
-        <v>355.8155635111644</v>
+        <v>541.4555484552502</v>
       </c>
       <c r="X37" t="n">
-        <v>197.7309225110951</v>
+        <v>541.4555484552502</v>
       </c>
       <c r="Y37" t="n">
-        <v>197.7309225110951</v>
+        <v>541.4555484552502</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1730.825848109897</v>
+        <v>1515.6531094561</v>
       </c>
       <c r="C38" t="n">
-        <v>1361.863331169485</v>
+        <v>1146.690592515688</v>
       </c>
       <c r="D38" t="n">
-        <v>1262.35592496853</v>
+        <v>1146.690592515688</v>
       </c>
       <c r="E38" t="n">
-        <v>876.5676723702861</v>
+        <v>760.9023399174439</v>
       </c>
       <c r="F38" t="n">
-        <v>465.5817675806785</v>
+        <v>349.9164351278363</v>
       </c>
       <c r="G38" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870194</v>
       </c>
       <c r="H38" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870194</v>
       </c>
       <c r="I38" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870194</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819817</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799484</v>
+        <v>428.7854999799469</v>
       </c>
       <c r="L38" t="n">
-        <v>772.8691714549147</v>
+        <v>772.8691714549132</v>
       </c>
       <c r="M38" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240657</v>
       </c>
       <c r="N38" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085905</v>
       </c>
       <c r="O38" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317522</v>
       </c>
       <c r="P38" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962847</v>
       </c>
       <c r="Q38" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561744</v>
       </c>
       <c r="R38" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435097</v>
       </c>
       <c r="S38" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.84348383742</v>
       </c>
       <c r="T38" t="n">
-        <v>2490.891446435099</v>
+        <v>2155.838745326143</v>
       </c>
       <c r="U38" t="n">
-        <v>2490.891446435099</v>
+        <v>1902.252949520222</v>
       </c>
       <c r="V38" t="n">
-        <v>2490.891446435099</v>
+        <v>1902.252949520222</v>
       </c>
       <c r="W38" t="n">
-        <v>2490.891446435099</v>
+        <v>1902.252949520222</v>
       </c>
       <c r="X38" t="n">
-        <v>2117.425688174019</v>
+        <v>1902.252949520222</v>
       </c>
       <c r="Y38" t="n">
-        <v>2117.425688174019</v>
+        <v>1902.252949520222</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>859.1382992416497</v>
+        <v>859.1382992416479</v>
       </c>
       <c r="C39" t="n">
-        <v>684.6852699605228</v>
+        <v>684.6852699605209</v>
       </c>
       <c r="D39" t="n">
-        <v>535.7508602992715</v>
+        <v>535.7508602992697</v>
       </c>
       <c r="E39" t="n">
-        <v>376.513405293816</v>
+        <v>376.5134052938142</v>
       </c>
       <c r="F39" t="n">
-        <v>229.978847320701</v>
+        <v>229.9788473206991</v>
       </c>
       <c r="G39" t="n">
-        <v>93.24576819005659</v>
+        <v>93.24576819005478</v>
       </c>
       <c r="H39" t="n">
-        <v>71.33540390088822</v>
+        <v>49.81782892870194</v>
       </c>
       <c r="I39" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870194</v>
       </c>
       <c r="J39" t="n">
-        <v>109.2358024440159</v>
+        <v>234.0659274310206</v>
       </c>
       <c r="K39" t="n">
-        <v>550.765992504644</v>
+        <v>560.6342506504899</v>
       </c>
       <c r="L39" t="n">
-        <v>838.7302756873065</v>
+        <v>848.5985338331524</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.127879935978</v>
+        <v>1203.996138081824</v>
       </c>
       <c r="N39" t="n">
-        <v>1573.340446166283</v>
+        <v>1583.208704312128</v>
       </c>
       <c r="O39" t="n">
-        <v>1898.02606388004</v>
+        <v>1907.894322025885</v>
       </c>
       <c r="P39" t="n">
-        <v>2379.537551852666</v>
+        <v>2149.150088787595</v>
       </c>
       <c r="Q39" t="n">
-        <v>2490.891446435099</v>
+        <v>2468.480498228518</v>
       </c>
       <c r="R39" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435097</v>
       </c>
       <c r="S39" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957451</v>
       </c>
       <c r="T39" t="n">
-        <v>2160.447087779</v>
+        <v>2160.447087778999</v>
       </c>
       <c r="U39" t="n">
-        <v>1932.354900192149</v>
+        <v>1932.354900192147</v>
       </c>
       <c r="V39" t="n">
-        <v>1697.202791960406</v>
+        <v>1697.202791960404</v>
       </c>
       <c r="W39" t="n">
-        <v>1442.965435232205</v>
+        <v>1442.965435232203</v>
       </c>
       <c r="X39" t="n">
-        <v>1235.113935026672</v>
+        <v>1235.11393502667</v>
       </c>
       <c r="Y39" t="n">
-        <v>1027.353636261718</v>
+        <v>1027.353636261716</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>92.67341841370276</v>
+        <v>622.5141500920075</v>
       </c>
       <c r="C40" t="n">
-        <v>92.67341841370276</v>
+        <v>622.5141500920075</v>
       </c>
       <c r="D40" t="n">
-        <v>92.67341841370276</v>
+        <v>472.3975106796718</v>
       </c>
       <c r="E40" t="n">
-        <v>92.67341841370276</v>
+        <v>324.4844170972787</v>
       </c>
       <c r="F40" t="n">
-        <v>49.81782892870198</v>
+        <v>324.4844170972787</v>
       </c>
       <c r="G40" t="n">
-        <v>49.81782892870198</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="H40" t="n">
-        <v>49.81782892870198</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I40" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870194</v>
       </c>
       <c r="J40" t="n">
-        <v>73.44728005477629</v>
+        <v>73.44728005477624</v>
       </c>
       <c r="K40" t="n">
         <v>242.1145636490677</v>
@@ -7365,19 +7365,19 @@
         <v>1085.259822331915</v>
       </c>
       <c r="U40" t="n">
-        <v>796.1400366611371</v>
+        <v>843.3067292355377</v>
       </c>
       <c r="V40" t="n">
-        <v>541.4555484552502</v>
+        <v>843.3067292355377</v>
       </c>
       <c r="W40" t="n">
-        <v>541.4555484552502</v>
+        <v>843.3067292355377</v>
       </c>
       <c r="X40" t="n">
-        <v>313.4659975572329</v>
+        <v>843.3067292355377</v>
       </c>
       <c r="Y40" t="n">
-        <v>92.67341841370276</v>
+        <v>622.5141500920075</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1081.867870736648</v>
+        <v>876.567672370286</v>
       </c>
       <c r="C41" t="n">
-        <v>1081.867870736648</v>
+        <v>876.567672370286</v>
       </c>
       <c r="D41" t="n">
-        <v>915.2474953566364</v>
+        <v>876.567672370286</v>
       </c>
       <c r="E41" t="n">
-        <v>529.4592427583921</v>
+        <v>876.567672370286</v>
       </c>
       <c r="F41" t="n">
-        <v>118.4733379687845</v>
+        <v>465.5817675806784</v>
       </c>
       <c r="G41" t="n">
-        <v>118.4733379687845</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="H41" t="n">
-        <v>118.4733379687845</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="I41" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819832</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799484</v>
       </c>
       <c r="L41" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M41" t="n">
         <v>1187.397991240658</v>
       </c>
       <c r="N41" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317522</v>
       </c>
       <c r="P41" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962847</v>
       </c>
       <c r="Q41" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561744</v>
       </c>
       <c r="R41" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435097</v>
       </c>
       <c r="S41" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="T41" t="n">
-        <v>2155.838745326145</v>
+        <v>2155.838745326143</v>
       </c>
       <c r="U41" t="n">
-        <v>2155.838745326145</v>
+        <v>1950.538546959782</v>
       </c>
       <c r="V41" t="n">
-        <v>1824.775857982574</v>
+        <v>1619.475659616212</v>
       </c>
       <c r="W41" t="n">
-        <v>1472.00720271246</v>
+        <v>1266.707004346098</v>
       </c>
       <c r="X41" t="n">
-        <v>1472.00720271246</v>
+        <v>1266.707004346098</v>
       </c>
       <c r="Y41" t="n">
-        <v>1081.867870736648</v>
+        <v>876.567672370286</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416484</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605214</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992701</v>
       </c>
       <c r="E42" t="n">
-        <v>448.6781532488152</v>
+        <v>376.5134052938146</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473206996</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005523</v>
       </c>
       <c r="H42" t="n">
-        <v>71.33540390088822</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I42" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="J42" t="n">
-        <v>234.0659274310207</v>
+        <v>234.0659274310206</v>
       </c>
       <c r="K42" t="n">
-        <v>583.0451988570709</v>
+        <v>675.5961174916488</v>
       </c>
       <c r="L42" t="n">
-        <v>871.0094820397334</v>
+        <v>963.5604006743113</v>
       </c>
       <c r="M42" t="n">
-        <v>1226.407086288405</v>
+        <v>1318.958004922983</v>
       </c>
       <c r="N42" t="n">
-        <v>1605.619652518709</v>
+        <v>1698.170571153287</v>
       </c>
       <c r="O42" t="n">
-        <v>1930.305270232466</v>
+        <v>2022.856188867044</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.561036994176</v>
+        <v>2264.111955628753</v>
       </c>
       <c r="Q42" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435097</v>
       </c>
       <c r="R42" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435097</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957452</v>
       </c>
       <c r="T42" t="n">
-        <v>2160.447087779</v>
+        <v>2160.447087778999</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192149</v>
+        <v>1932.354900192147</v>
       </c>
       <c r="V42" t="n">
-        <v>1697.202791960406</v>
+        <v>1697.202791960405</v>
       </c>
       <c r="W42" t="n">
-        <v>1442.965435232205</v>
+        <v>1442.965435232203</v>
       </c>
       <c r="X42" t="n">
-        <v>1235.113935026672</v>
+        <v>1235.11393502667</v>
       </c>
       <c r="Y42" t="n">
-        <v>1027.353636261718</v>
+        <v>1027.353636261716</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>434.9854994564735</v>
+        <v>313.1686131910506</v>
       </c>
       <c r="C43" t="n">
-        <v>434.9854994564735</v>
+        <v>313.1686131910506</v>
       </c>
       <c r="D43" t="n">
-        <v>434.9854994564735</v>
+        <v>313.1686131910506</v>
       </c>
       <c r="E43" t="n">
-        <v>434.9854994564735</v>
+        <v>165.2555196086574</v>
       </c>
       <c r="F43" t="n">
-        <v>366.8057940872854</v>
+        <v>165.2555196086574</v>
       </c>
       <c r="G43" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="H43" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="I43" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="J43" t="n">
-        <v>73.44728005477629</v>
+        <v>73.44728005477626</v>
       </c>
       <c r="K43" t="n">
         <v>242.1145636490677</v>
@@ -7593,28 +7593,28 @@
         <v>1609.220368204926</v>
       </c>
       <c r="R43" t="n">
-        <v>1609.220368204926</v>
+        <v>1505.443183112051</v>
       </c>
       <c r="S43" t="n">
-        <v>1609.220368204926</v>
+        <v>1308.3517434821</v>
       </c>
       <c r="T43" t="n">
-        <v>1609.220368204926</v>
+        <v>1085.259822331915</v>
       </c>
       <c r="U43" t="n">
-        <v>1320.100582534148</v>
+        <v>1085.259822331915</v>
       </c>
       <c r="V43" t="n">
-        <v>1065.416094328261</v>
+        <v>830.5753341260285</v>
       </c>
       <c r="W43" t="n">
-        <v>1065.416094328261</v>
+        <v>541.1581640890679</v>
       </c>
       <c r="X43" t="n">
-        <v>837.4265434302433</v>
+        <v>313.1686131910506</v>
       </c>
       <c r="Y43" t="n">
-        <v>616.6339642867132</v>
+        <v>313.1686131910506</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1331.011434008613</v>
+        <v>876.567672370286</v>
       </c>
       <c r="C44" t="n">
-        <v>1331.011434008613</v>
+        <v>876.567672370286</v>
       </c>
       <c r="D44" t="n">
-        <v>1331.011434008613</v>
+        <v>876.567672370286</v>
       </c>
       <c r="E44" t="n">
-        <v>945.2231814103684</v>
+        <v>876.567672370286</v>
       </c>
       <c r="F44" t="n">
-        <v>534.2372766207609</v>
+        <v>465.5817675806784</v>
       </c>
       <c r="G44" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="H44" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="I44" t="n">
         <v>49.81782892870195</v>
@@ -7654,7 +7654,7 @@
         <v>428.7854999799484</v>
       </c>
       <c r="L44" t="n">
-        <v>772.8691714549145</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M44" t="n">
         <v>1187.397991240658</v>
@@ -7666,34 +7666,34 @@
         <v>2002.031077317523</v>
       </c>
       <c r="P44" t="n">
-        <v>2299.347327962847</v>
+        <v>2299.347327962848</v>
       </c>
       <c r="Q44" t="n">
-        <v>2474.446703561744</v>
+        <v>2474.446703561745</v>
       </c>
       <c r="R44" t="n">
         <v>2490.891446435097</v>
       </c>
       <c r="S44" t="n">
-        <v>2490.891446435097</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="T44" t="n">
-        <v>2481.216364309626</v>
+        <v>2155.838745326143</v>
       </c>
       <c r="U44" t="n">
-        <v>2481.216364309626</v>
+        <v>2006.075499680334</v>
       </c>
       <c r="V44" t="n">
-        <v>2481.216364309626</v>
+        <v>2006.075499680334</v>
       </c>
       <c r="W44" t="n">
-        <v>2481.216364309626</v>
+        <v>1653.30684441022</v>
       </c>
       <c r="X44" t="n">
-        <v>2107.750606048546</v>
+        <v>1653.30684441022</v>
       </c>
       <c r="Y44" t="n">
-        <v>1717.611274072734</v>
+        <v>1263.167512434408</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416484</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605214</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992701</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6781532488151</v>
+        <v>376.5134052938146</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473206996</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005523</v>
       </c>
       <c r="H45" t="n">
-        <v>71.3354039008882</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="I45" t="n">
         <v>49.81782892870195</v>
@@ -7772,7 +7772,7 @@
         <v>1235.11393502667</v>
       </c>
       <c r="Y45" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261716</v>
       </c>
     </row>
     <row r="46">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1087.315231116727</v>
+        <v>978.7897733331389</v>
       </c>
       <c r="C46" t="n">
-        <v>918.37904818882</v>
+        <v>809.853590405232</v>
       </c>
       <c r="D46" t="n">
         <v>768.2624087764842</v>
@@ -7830,28 +7830,28 @@
         <v>1609.220368204926</v>
       </c>
       <c r="R46" t="n">
-        <v>1505.443183112051</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S46" t="n">
-        <v>1505.443183112051</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T46" t="n">
-        <v>1505.443183112051</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.756275090497</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="V46" t="n">
-        <v>1489.756275090497</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="W46" t="n">
-        <v>1489.756275090497</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="X46" t="n">
-        <v>1489.756275090497</v>
+        <v>1381.230817306909</v>
       </c>
       <c r="Y46" t="n">
-        <v>1268.963695946966</v>
+        <v>1160.438238163379</v>
       </c>
     </row>
   </sheetData>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>32.60525894184541</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>212.3901924994349</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>294.7575911908384</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>22.88434839053383</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,10 +9008,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>331.849848292954</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>49.20690005691034</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.591511337286</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>22.88434839053383</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>212.3901924994348</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>294.7575911908384</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>116.591511337286</v>
       </c>
       <c r="R18" t="n">
         <v>22.88434839053383</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>2.042810365310288e-12</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>170.9794606140151</v>
       </c>
       <c r="L21" t="n">
-        <v>242.682546677696</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>22.88434839053383</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>7.177264930047954</v>
+        <v>7.1772649300475</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>243.8731454170448</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>189.4851961403151</v>
       </c>
       <c r="R24" t="n">
         <v>22.88434839053383</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>7.1772649300475</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>72.89368480303006</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>105.498943744875</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>261.5786998533654</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>22.88434839053383</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>7.1772649300475</v>
       </c>
       <c r="K29" t="n">
-        <v>72.89368480302994</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>243.8731454170443</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>189.4851961403155</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>22.88434839053383</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>72.89368480302994</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>72.89368480302954</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>313.1669656691546</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>266.8745028241481</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>189.4851961403151</v>
       </c>
       <c r="R33" t="n">
         <v>22.88434839053383</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>32.60525894184529</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>116.5915113372858</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>22.88434839053383</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>-6.931930442711291e-13</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>148.3421391932262</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>242.6825466776945</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>22.88434839053383</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>170.9794606140151</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>116.5915113372846</v>
       </c>
       <c r="R42" t="n">
         <v>22.88434839053383</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,13 +23314,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>19.35296880313979</v>
       </c>
       <c r="W11" t="n">
-        <v>144.6216190311943</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23387,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>71.44310047544815</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>71.44310047544911</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>126.0680064527789</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.3328844140846</v>
@@ -23436,7 +23436,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>102.7394132419461</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S13" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T13" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>79.8507055128249</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.6062992654567</v>
+        <v>64.176143053288</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>39.80058634893689</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>71.44310047544916</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>71.44310047544911</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.21302573084395</v>
+        <v>87.58027424512528</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>373.7180541066257</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>123.9825344807269</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T17" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>71.44310047544909</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>71.44310047544909</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23940,19 +23940,19 @@
         <v>102.7394132419461</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>81.2746734634359</v>
       </c>
       <c r="W19" t="n">
-        <v>141.3565515044942</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>11.22709177496836</v>
       </c>
       <c r="H20" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I20" t="n">
-        <v>62.14835901375369</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24062,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>71.44310047544916</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>71.44310047544772</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>254.6526388050126</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>232.598999301402</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>141.3565515044943</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>141.356551504494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>115.5150137201412</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.6062992654567</v>
+        <v>188.0751367502616</v>
       </c>
       <c r="H26" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>206.9146911261644</v>
@@ -24502,13 +24502,13 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.0680064527796</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H28" t="n">
         <v>147.485201092913</v>
@@ -24654,13 +24654,13 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
-        <v>143.1673111632117</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>252.6965629559696</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>206.9146911261644</v>
@@ -24739,16 +24739,16 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>299.0911468050249</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>140.9563226585445</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
-        <v>18.38630935740298</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>243.2567614689142</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H32" t="n">
         <v>301.6186538912489</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>152.0382076514393</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>140.8755294797759</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.3328844140846</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>25.51131139434536</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,22 +25156,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>87.30669243423574</v>
       </c>
       <c r="G35" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>33.56640388988546</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>67.96895394968166</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.0499378478622</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25250,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>50.14070125298476</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>71.44310047544907</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>120.0820257705147</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>147.485201092913</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.7394132419461</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>69.20586079896856</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>256.1707094817374</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>114.5086791283136</v>
       </c>
       <c r="H38" t="n">
         <v>301.6186538912489</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>71.44310047544914</v>
+        <v>50.14070125298653</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>102.9940144327805</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I40" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>46.69502564865661</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25633,22 +25633,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>189.7288699944712</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0499378478622</v>
+        <v>47.80274146516464</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>71.44310047544909</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>71.44310047545046</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>77.92313970743506</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>52.04957064092865</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I43" t="n">
         <v>105.5870378728063</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>102.7394132419461</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25873,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>197.3363598219478</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0499378478622</v>
+        <v>102.7843246585106</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25961,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>50.14070125298608</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>71.44310047545045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>107.4402032057521</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S46" t="n">
         <v>195.1205252336517</v>
@@ -26079,7 +26079,7 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U46" t="n">
-        <v>270.6985488727313</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>606218.0049888954</v>
+        <v>606218.004988895</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>618273.3736088377</v>
+        <v>618273.3736088375</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>618273.3736088376</v>
+        <v>618273.3736088375</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>606218.0049888951</v>
+        <v>606218.004988895</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>606218.0049888951</v>
+        <v>606218.0049888947</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>606218.004988895</v>
+        <v>606218.0049888948</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>606218.0049888948</v>
+        <v>606218.0049888949</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>634939.1625057049</v>
+      </c>
+      <c r="C2" t="n">
         <v>634939.1625057048</v>
       </c>
-      <c r="C2" t="n">
-        <v>634939.1625057047</v>
-      </c>
       <c r="D2" t="n">
-        <v>634939.1625057048</v>
+        <v>634939.1625057049</v>
       </c>
       <c r="E2" t="n">
-        <v>466826.4754211794</v>
+        <v>466826.4754211796</v>
       </c>
       <c r="F2" t="n">
         <v>466826.4754211793</v>
@@ -26331,31 +26331,31 @@
         <v>466826.4754211793</v>
       </c>
       <c r="H2" t="n">
-        <v>466826.4754211794</v>
+        <v>466826.4754211793</v>
       </c>
       <c r="I2" t="n">
+        <v>473581.4205711329</v>
+      </c>
+      <c r="J2" t="n">
         <v>473581.420571133</v>
       </c>
-      <c r="J2" t="n">
-        <v>473581.4205711329</v>
-      </c>
       <c r="K2" t="n">
+        <v>473581.4205711328</v>
+      </c>
+      <c r="L2" t="n">
         <v>473581.420571133</v>
       </c>
-      <c r="L2" t="n">
-        <v>473581.4205711329</v>
-      </c>
       <c r="M2" t="n">
-        <v>466826.4754211792</v>
+        <v>466826.4754211793</v>
       </c>
       <c r="N2" t="n">
-        <v>466826.4754211792</v>
+        <v>466826.4754211791</v>
       </c>
       <c r="O2" t="n">
-        <v>466826.4754211794</v>
+        <v>466826.4754211791</v>
       </c>
       <c r="P2" t="n">
-        <v>466826.4754211793</v>
+        <v>466826.4754211791</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>924651.5793761238</v>
+        <v>924651.579376124</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648227</v>
+        <v>4895.439270648287</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150597.338246859</v>
+        <v>150597.3382468589</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,28 +26435,28 @@
         <v>19428.11537840985</v>
       </c>
       <c r="H4" t="n">
-        <v>19428.11537840994</v>
+        <v>19428.11537840984</v>
       </c>
       <c r="I4" t="n">
-        <v>22998.66674111667</v>
+        <v>22998.66674111666</v>
       </c>
       <c r="J4" t="n">
         <v>22998.66674111666</v>
       </c>
       <c r="K4" t="n">
-        <v>22998.66674111666</v>
+        <v>22998.66674111665</v>
       </c>
       <c r="L4" t="n">
-        <v>22998.66674111665</v>
+        <v>22998.66674111664</v>
       </c>
       <c r="M4" t="n">
         <v>19428.11537840985</v>
       </c>
       <c r="N4" t="n">
-        <v>19428.11537840985</v>
+        <v>19428.11537840976</v>
       </c>
       <c r="O4" t="n">
-        <v>19428.11537840985</v>
+        <v>19428.11537840983</v>
       </c>
       <c r="P4" t="n">
         <v>19428.11537840983</v>
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="F5" t="n">
         <v>57906.41050425672</v>
@@ -26487,28 +26487,28 @@
         <v>57906.41050425672</v>
       </c>
       <c r="H5" t="n">
-        <v>57906.41050425674</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="I5" t="n">
-        <v>59025.70047253834</v>
+        <v>59025.70047253833</v>
       </c>
       <c r="J5" t="n">
-        <v>59025.70047253834</v>
+        <v>59025.70047253833</v>
       </c>
       <c r="K5" t="n">
-        <v>59025.70047253834</v>
+        <v>59025.70047253833</v>
       </c>
       <c r="L5" t="n">
-        <v>59025.70047253834</v>
+        <v>59025.70047253833</v>
       </c>
       <c r="M5" t="n">
         <v>57906.41050425672</v>
       </c>
       <c r="N5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.4105042567</v>
       </c>
       <c r="O5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.4105042567</v>
       </c>
       <c r="P5" t="n">
         <v>57906.4105042567</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>170368.9172843478</v>
+        <v>170408.6394851609</v>
       </c>
       <c r="C6" t="n">
-        <v>170368.9172843477</v>
+        <v>170408.6394851608</v>
       </c>
       <c r="D6" t="n">
-        <v>170368.9172843478</v>
+        <v>170408.6394851609</v>
       </c>
       <c r="E6" t="n">
-        <v>-540626.7555222446</v>
+        <v>-535706.3424060744</v>
       </c>
       <c r="F6" t="n">
-        <v>384024.8238538792</v>
+        <v>388945.2369700496</v>
       </c>
       <c r="G6" t="n">
-        <v>384024.8238538791</v>
+        <v>388945.2369700494</v>
       </c>
       <c r="H6" t="n">
-        <v>384024.8238538792</v>
+        <v>388945.2369700493</v>
       </c>
       <c r="I6" t="n">
-        <v>381412.3898586463</v>
+        <v>386136.6916640113</v>
       </c>
       <c r="J6" t="n">
-        <v>386307.8291292944</v>
+        <v>391032.1309346597</v>
       </c>
       <c r="K6" t="n">
-        <v>386307.8291292945</v>
+        <v>391032.1309346594</v>
       </c>
       <c r="L6" t="n">
-        <v>386307.8291292944</v>
+        <v>391032.1309346597</v>
       </c>
       <c r="M6" t="n">
-        <v>233427.4856070201</v>
+        <v>238347.8987231904</v>
       </c>
       <c r="N6" t="n">
-        <v>384024.8238538791</v>
+        <v>388945.2369700494</v>
       </c>
       <c r="O6" t="n">
-        <v>384024.8238538792</v>
+        <v>388945.2369700493</v>
       </c>
       <c r="P6" t="n">
-        <v>384024.8238538792</v>
+        <v>388945.2369700493</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="F3" t="n">
         <v>919.4890146074871</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="F4" t="n">
         <v>622.7228616087747</v>
@@ -26807,28 +26807,28 @@
         <v>622.7228616087747</v>
       </c>
       <c r="H4" t="n">
-        <v>622.722861608775</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="I4" t="n">
-        <v>641.1322360870909</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="J4" t="n">
-        <v>641.1322360870909</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="K4" t="n">
-        <v>641.1322360870909</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="L4" t="n">
-        <v>641.1322360870909</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="M4" t="n">
         <v>622.7228616087747</v>
       </c>
       <c r="N4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087742</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087743</v>
       </c>
       <c r="P4" t="n">
         <v>622.7228616087743</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831584</v>
+        <v>18.40937447831607</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304593</v>
+        <v>604.313487130459</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H11" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I11" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J11" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K11" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L11" t="n">
-        <v>583.3256790861147</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M11" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N11" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O11" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P11" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q11" t="n">
-        <v>399.1737460349518</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R11" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S11" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T11" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H12" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I12" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J12" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K12" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L12" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M12" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N12" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O12" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P12" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q12" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R12" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S12" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T12" t="n">
-        <v>7.971796268153589</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U12" t="n">
         <v>0.1301163699916256</v>
@@ -31916,7 +31916,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I13" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J13" t="n">
         <v>117.2273125672529</v>
@@ -31925,34 +31925,34 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L13" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M13" t="n">
         <v>259.9139193258508</v>
       </c>
       <c r="N13" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O13" t="n">
         <v>234.3641835920855</v>
       </c>
       <c r="P13" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R13" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S13" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T13" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K11" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L11" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M11" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N11" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O11" t="n">
-        <v>392.7100487188047</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P11" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R11" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.0181550659737</v>
+        <v>92.62341400781919</v>
       </c>
       <c r="K12" t="n">
-        <v>181.5248539577528</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2632058152556</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M12" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N12" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O12" t="n">
-        <v>622.7228616087747</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P12" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K13" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L13" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M13" t="n">
         <v>299.4977962876914</v>
       </c>
       <c r="N13" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O13" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P13" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>186.1091904063825</v>
       </c>
       <c r="K15" t="n">
-        <v>445.9900909703314</v>
+        <v>181.5248539577528</v>
       </c>
       <c r="L15" t="n">
-        <v>290.8730133158207</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="M15" t="n">
         <v>358.9874790390621</v>
@@ -35740,13 +35740,13 @@
         <v>383.042996192227</v>
       </c>
       <c r="O15" t="n">
-        <v>327.9652704179363</v>
+        <v>377.1721704748466</v>
       </c>
       <c r="P15" t="n">
         <v>243.692693698696</v>
       </c>
       <c r="Q15" t="n">
-        <v>229.0701927336825</v>
+        <v>112.4786813963965</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.0181550659737</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K18" t="n">
-        <v>181.5248539577528</v>
+        <v>445.9900909703314</v>
       </c>
       <c r="L18" t="n">
         <v>290.8730133158207</v>
       </c>
       <c r="M18" t="n">
-        <v>571.3776715384969</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N18" t="n">
         <v>383.042996192227</v>
       </c>
       <c r="O18" t="n">
-        <v>622.7228616087747</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P18" t="n">
         <v>243.692693698696</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.4786813963965</v>
+        <v>229.0701927336825</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>176.8680561605023</v>
       </c>
       <c r="R20" t="n">
-        <v>16.61085138722697</v>
+        <v>16.61085138722559</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.0181550659737</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K21" t="n">
-        <v>445.9900909703314</v>
+        <v>352.5043145717679</v>
       </c>
       <c r="L21" t="n">
-        <v>533.5555599935167</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M21" t="n">
         <v>358.9874790390621</v>
@@ -36220,7 +36220,7 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>139.8619362969987</v>
+        <v>139.8619362969983</v>
       </c>
       <c r="K23" t="n">
         <v>250.1109559575406</v>
@@ -36439,7 +36439,7 @@
         <v>186.1091904063825</v>
       </c>
       <c r="K24" t="n">
-        <v>425.3979993747976</v>
+        <v>445.9900909703314</v>
       </c>
       <c r="L24" t="n">
         <v>290.8730133158207</v>
@@ -36457,7 +36457,7 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q24" t="n">
-        <v>322.5559691322455</v>
+        <v>301.9638775367115</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>132.6846713669508</v>
+        <v>139.8619362969983</v>
       </c>
       <c r="K26" t="n">
         <v>250.1109559575406</v>
@@ -36603,7 +36603,7 @@
         <v>347.5592641161275</v>
       </c>
       <c r="M26" t="n">
-        <v>491.6096643845891</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N26" t="n">
         <v>430.1516543891395</v>
@@ -36618,7 +36618,7 @@
         <v>176.8680561605023</v>
       </c>
       <c r="R26" t="n">
-        <v>16.61085138722493</v>
+        <v>82.32727126020737</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>165.5170988108487</v>
+        <v>60.0181550659737</v>
       </c>
       <c r="K27" t="n">
-        <v>445.9900909703314</v>
+        <v>443.1035538111182</v>
       </c>
       <c r="L27" t="n">
         <v>290.8730133158207</v>
@@ -36691,10 +36691,10 @@
         <v>327.9652704179363</v>
       </c>
       <c r="P27" t="n">
-        <v>243.692693698696</v>
+        <v>562.1554623386331</v>
       </c>
       <c r="Q27" t="n">
-        <v>322.5559691322455</v>
+        <v>112.4786813963965</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>132.6846713669508</v>
+        <v>139.8619362969983</v>
       </c>
       <c r="K29" t="n">
-        <v>323.0046407605706</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L29" t="n">
         <v>347.5592641161275</v>
@@ -36855,7 +36855,7 @@
         <v>176.8680561605023</v>
       </c>
       <c r="R29" t="n">
-        <v>16.61085138722493</v>
+        <v>82.32727126020737</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>186.1091904063825</v>
       </c>
       <c r="K30" t="n">
-        <v>445.9900909703314</v>
+        <v>425.3979993747972</v>
       </c>
       <c r="L30" t="n">
         <v>290.8730133158207</v>
@@ -36931,7 +36931,7 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q30" t="n">
-        <v>301.963877536712</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K32" t="n">
-        <v>323.0046407605706</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L32" t="n">
         <v>347.5592641161275</v>
@@ -37086,7 +37086,7 @@
         <v>392.7100487188047</v>
       </c>
       <c r="P32" t="n">
-        <v>300.3194450962879</v>
+        <v>373.2131298993174</v>
       </c>
       <c r="Q32" t="n">
         <v>176.8680561605023</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.0181550659737</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K33" t="n">
-        <v>181.5248539577528</v>
+        <v>445.9900909703314</v>
       </c>
       <c r="L33" t="n">
         <v>290.8730133158207</v>
@@ -37162,13 +37162,13 @@
         <v>383.042996192227</v>
       </c>
       <c r="O33" t="n">
-        <v>641.1322360870909</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P33" t="n">
-        <v>510.567196522844</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.4786813963965</v>
+        <v>301.9638775367115</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>176.8680561605023</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722559</v>
+        <v>16.61085138722493</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>186.1091904063825</v>
+        <v>92.62341400781899</v>
       </c>
       <c r="K36" t="n">
         <v>445.9900909703314</v>
@@ -37393,7 +37393,7 @@
         <v>290.8730133158207</v>
       </c>
       <c r="M36" t="n">
-        <v>475.5789903763479</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N36" t="n">
         <v>383.042996192227</v>
@@ -37405,7 +37405,7 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669492</v>
       </c>
       <c r="K38" t="n">
         <v>250.1109559575406</v>
@@ -37566,7 +37566,7 @@
         <v>176.8680561605023</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722559</v>
+        <v>16.61085138722493</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.0181550659737</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K39" t="n">
-        <v>445.9900909703314</v>
+        <v>329.866993150979</v>
       </c>
       <c r="L39" t="n">
         <v>290.8730133158207</v>
@@ -37639,13 +37639,13 @@
         <v>327.9652704179363</v>
       </c>
       <c r="P39" t="n">
-        <v>486.3752403763905</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>22.63732142078699</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>186.1091904063825</v>
       </c>
       <c r="K42" t="n">
-        <v>352.5043145717679</v>
+        <v>445.9900909703314</v>
       </c>
       <c r="L42" t="n">
         <v>290.8730133158207</v>
@@ -37879,7 +37879,7 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q42" t="n">
-        <v>322.5559691322455</v>
+        <v>229.0701927336811</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>176.8680561605023</v>
       </c>
       <c r="R44" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722421</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
